--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H2">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I2">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J2">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>423.826016126552</v>
+        <v>558.0412374599729</v>
       </c>
       <c r="R2">
-        <v>423.826016126552</v>
+        <v>5022.371137139756</v>
       </c>
       <c r="S2">
-        <v>0.0008071523201826947</v>
+        <v>0.001033229929659018</v>
       </c>
       <c r="T2">
-        <v>0.0008071523201826947</v>
+        <v>0.001033229929659018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H3">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I3">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J3">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>14841.28751692332</v>
+        <v>15102.1775872154</v>
       </c>
       <c r="R3">
-        <v>14841.28751692332</v>
+        <v>135919.5982849385</v>
       </c>
       <c r="S3">
-        <v>0.02826438018898352</v>
+        <v>0.02796213046397992</v>
       </c>
       <c r="T3">
-        <v>0.02826438018898352</v>
+        <v>0.02796213046397992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H4">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I4">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J4">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>20297.33380929587</v>
+        <v>20612.58334436243</v>
       </c>
       <c r="R4">
-        <v>20297.33380929587</v>
+        <v>185513.2500992618</v>
       </c>
       <c r="S4">
-        <v>0.03865510717681836</v>
+        <v>0.03816481042857314</v>
       </c>
       <c r="T4">
-        <v>0.03865510717681836</v>
+        <v>0.03816481042857313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H5">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I5">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J5">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>14830.05877722358</v>
+        <v>15466.17237232111</v>
       </c>
       <c r="R5">
-        <v>14830.05877722358</v>
+        <v>139195.55135089</v>
       </c>
       <c r="S5">
-        <v>0.02824299569875281</v>
+        <v>0.02863607762229902</v>
       </c>
       <c r="T5">
-        <v>0.02824299569875281</v>
+        <v>0.02863607762229901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H6">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I6">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J6">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>1262.547700542002</v>
+        <v>1444.629679606046</v>
       </c>
       <c r="R6">
-        <v>1262.547700542002</v>
+        <v>13001.66711645442</v>
       </c>
       <c r="S6">
-        <v>0.002404449625691489</v>
+        <v>0.002674774769399992</v>
       </c>
       <c r="T6">
-        <v>0.002404449625691489</v>
+        <v>0.002674774769399991</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H7">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I7">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J7">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>1229.29979970295</v>
+        <v>1598.987385598512</v>
       </c>
       <c r="R7">
-        <v>1229.29979970295</v>
+        <v>14390.88647038661</v>
       </c>
       <c r="S7">
-        <v>0.002341130906966511</v>
+        <v>0.002960572647762633</v>
       </c>
       <c r="T7">
-        <v>0.002341130906966511</v>
+        <v>0.002960572647762632</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H8">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I8">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J8">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>43046.8897087244</v>
+        <v>43273.13079395516</v>
       </c>
       <c r="R8">
-        <v>43046.8897087244</v>
+        <v>389458.1771455964</v>
       </c>
       <c r="S8">
-        <v>0.08198033056722664</v>
+        <v>0.08012148723967878</v>
       </c>
       <c r="T8">
-        <v>0.08198033056722664</v>
+        <v>0.08012148723967878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H9">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I9">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J9">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>58872.05465655263</v>
+        <v>59062.41069612282</v>
       </c>
       <c r="R9">
-        <v>58872.05465655263</v>
+        <v>531561.6962651054</v>
       </c>
       <c r="S9">
-        <v>0.1121184488489967</v>
+        <v>0.1093558080524904</v>
       </c>
       <c r="T9">
-        <v>0.1121184488489967</v>
+        <v>0.1093558080524904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H10">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I10">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J10">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>43014.32094951993</v>
+        <v>44316.10581217579</v>
       </c>
       <c r="R10">
-        <v>43014.32094951993</v>
+        <v>398844.9523095821</v>
       </c>
       <c r="S10">
-        <v>0.08191830523476214</v>
+        <v>0.08205258647101382</v>
       </c>
       <c r="T10">
-        <v>0.08191830523476214</v>
+        <v>0.08205258647101381</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H11">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I11">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J11">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>3661.997084502405</v>
+        <v>4139.37981548716</v>
       </c>
       <c r="R11">
-        <v>3661.997084502405</v>
+        <v>37254.41833938444</v>
       </c>
       <c r="S11">
-        <v>0.006974063249519345</v>
+        <v>0.007664184702648488</v>
       </c>
       <c r="T11">
-        <v>0.006974063249519345</v>
+        <v>0.007664184702648487</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>276.653153049199</v>
+        <v>277.340215</v>
       </c>
       <c r="H12">
-        <v>276.653153049199</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I12">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J12">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>1438.271434759446</v>
+        <v>1870.586624804978</v>
       </c>
       <c r="R12">
-        <v>1438.271434759446</v>
+        <v>16835.27962324481</v>
       </c>
       <c r="S12">
-        <v>0.002739105391000681</v>
+        <v>0.00346344670792717</v>
       </c>
       <c r="T12">
-        <v>0.002739105391000681</v>
+        <v>0.00346344670792717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>276.653153049199</v>
+        <v>277.340215</v>
       </c>
       <c r="H13">
-        <v>276.653153049199</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I13">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J13">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>50364.53421554244</v>
+        <v>50623.37602263837</v>
       </c>
       <c r="R13">
-        <v>50364.53421554244</v>
+        <v>455610.3842037453</v>
       </c>
       <c r="S13">
-        <v>0.09591636449909997</v>
+        <v>0.09373068464447383</v>
       </c>
       <c r="T13">
-        <v>0.09591636449909997</v>
+        <v>0.09373068464447383</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>276.653153049199</v>
+        <v>277.340215</v>
       </c>
       <c r="H14">
-        <v>276.653153049199</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I14">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J14">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>68879.85708496597</v>
+        <v>69094.57602478325</v>
       </c>
       <c r="R14">
-        <v>68879.85708496597</v>
+        <v>621851.1842230492</v>
       </c>
       <c r="S14">
-        <v>0.1311777341280105</v>
+        <v>0.1279306601978983</v>
       </c>
       <c r="T14">
-        <v>0.1311777341280105</v>
+        <v>0.1279306601978983</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>276.653153049199</v>
+        <v>277.340215</v>
       </c>
       <c r="H15">
-        <v>276.653153049199</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I15">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J15">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>50326.42901448353</v>
+        <v>51843.50767387023</v>
       </c>
       <c r="R15">
-        <v>50326.42901448353</v>
+        <v>466591.5690648321</v>
       </c>
       <c r="S15">
-        <v>0.09584379533091437</v>
+        <v>0.09598979464486598</v>
       </c>
       <c r="T15">
-        <v>0.09584379533091437</v>
+        <v>0.09598979464486597</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>276.653153049199</v>
+        <v>277.340215</v>
       </c>
       <c r="H16">
-        <v>276.653153049199</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I16">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J16">
-        <v>0.3338366004149438</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>4284.50879279806</v>
+        <v>4842.482553381554</v>
       </c>
       <c r="R16">
-        <v>4284.50879279806</v>
+        <v>43582.34298043399</v>
       </c>
       <c r="S16">
-        <v>0.008159601065918277</v>
+        <v>0.008966000309904206</v>
       </c>
       <c r="T16">
-        <v>0.008159601065918277</v>
+        <v>0.008966000309904206</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>185.8949378875</v>
+        <v>191.058024</v>
       </c>
       <c r="H17">
-        <v>185.8949378875</v>
+        <v>573.174072</v>
       </c>
       <c r="I17">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J17">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>966.4353219297128</v>
+        <v>1288.635996247672</v>
       </c>
       <c r="R17">
-        <v>966.4353219297128</v>
+        <v>11597.72396622905</v>
       </c>
       <c r="S17">
-        <v>0.001840520597416926</v>
+        <v>0.002385947830342132</v>
       </c>
       <c r="T17">
-        <v>0.001840520597416926</v>
+        <v>0.002385947830342132</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>185.8949378875</v>
+        <v>191.058024</v>
       </c>
       <c r="H18">
-        <v>185.8949378875</v>
+        <v>573.174072</v>
       </c>
       <c r="I18">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J18">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>33842.057668745</v>
+        <v>34874.14254400238</v>
       </c>
       <c r="R18">
-        <v>33842.057668745</v>
+        <v>313867.2828960214</v>
       </c>
       <c r="S18">
-        <v>0.0644502563026423</v>
+        <v>0.06457051097454551</v>
       </c>
       <c r="T18">
-        <v>0.0644502563026423</v>
+        <v>0.06457051097454553</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>185.8949378875</v>
+        <v>191.058024</v>
       </c>
       <c r="H19">
-        <v>185.8949378875</v>
+        <v>573.174072</v>
       </c>
       <c r="I19">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J19">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>46283.28509320309</v>
+        <v>47598.84232588795</v>
       </c>
       <c r="R19">
-        <v>46283.28509320309</v>
+        <v>428389.5809329915</v>
       </c>
       <c r="S19">
-        <v>0.08814385980850507</v>
+        <v>0.08813067065094002</v>
       </c>
       <c r="T19">
-        <v>0.08814385980850507</v>
+        <v>0.08813067065094002</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>185.8949378875</v>
+        <v>191.058024</v>
       </c>
       <c r="H20">
-        <v>185.8949378875</v>
+        <v>573.174072</v>
       </c>
       <c r="I20">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J20">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>33816.45317479305</v>
+        <v>35714.68397902008</v>
       </c>
       <c r="R20">
-        <v>33816.45317479305</v>
+        <v>321432.1558111807</v>
       </c>
       <c r="S20">
-        <v>0.06440149401360376</v>
+        <v>0.06612679841260626</v>
       </c>
       <c r="T20">
-        <v>0.06440149401360376</v>
+        <v>0.06612679841260624</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>185.8949378875</v>
+        <v>191.058024</v>
       </c>
       <c r="H21">
-        <v>185.8949378875</v>
+        <v>573.174072</v>
       </c>
       <c r="I21">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="J21">
-        <v>0.2243189112963909</v>
+        <v>0.22739055213619</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N21">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q21">
-        <v>2878.94241268236</v>
+        <v>3335.957419314593</v>
       </c>
       <c r="R21">
-        <v>2878.94241268236</v>
+        <v>30023.61677383133</v>
       </c>
       <c r="S21">
-        <v>0.005482780574222878</v>
+        <v>0.006176624267756068</v>
       </c>
       <c r="T21">
-        <v>0.005482780574222878</v>
+        <v>0.006176624267756068</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>48.17954480489</v>
+        <v>52.01228800000001</v>
       </c>
       <c r="H22">
-        <v>48.17954480489</v>
+        <v>156.036864</v>
       </c>
       <c r="I22">
-        <v>0.05813812447076505</v>
+        <v>0.0619031990312353</v>
       </c>
       <c r="J22">
-        <v>0.05813812447076505</v>
+        <v>0.06190319903123528</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N22">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q22">
-        <v>250.4770405427584</v>
+        <v>350.8091686533974</v>
       </c>
       <c r="R22">
-        <v>250.4770405427584</v>
+        <v>3157.282517880576</v>
       </c>
       <c r="S22">
-        <v>0.0004770191463806096</v>
+        <v>0.0006495335977343201</v>
       </c>
       <c r="T22">
-        <v>0.0004770191463806096</v>
+        <v>0.0006495335977343201</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>48.17954480489</v>
+        <v>52.01228800000001</v>
       </c>
       <c r="H23">
-        <v>48.17954480489</v>
+        <v>156.036864</v>
       </c>
       <c r="I23">
-        <v>0.05813812447076505</v>
+        <v>0.0619031990312353</v>
       </c>
       <c r="J23">
-        <v>0.05813812447076505</v>
+        <v>0.06190319903123528</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N23">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P23">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q23">
-        <v>8771.056125948491</v>
+        <v>9493.890430645848</v>
       </c>
       <c r="R23">
-        <v>8771.056125948491</v>
+        <v>85445.01387581261</v>
       </c>
       <c r="S23">
-        <v>0.016703972934965</v>
+        <v>0.01757822018045797</v>
       </c>
       <c r="T23">
-        <v>0.016703972934965</v>
+        <v>0.01757822018045797</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>48.17954480489</v>
+        <v>52.01228800000001</v>
       </c>
       <c r="H24">
-        <v>48.17954480489</v>
+        <v>156.036864</v>
       </c>
       <c r="I24">
-        <v>0.05813812447076505</v>
+        <v>0.0619031990312353</v>
       </c>
       <c r="J24">
-        <v>0.05813812447076505</v>
+        <v>0.06190319903123528</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N24">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q24">
-        <v>11995.52625373249</v>
+        <v>12957.97289058466</v>
       </c>
       <c r="R24">
-        <v>11995.52625373249</v>
+        <v>116621.756015262</v>
       </c>
       <c r="S24">
-        <v>0.02284479120937576</v>
+        <v>0.02399207176731735</v>
       </c>
       <c r="T24">
-        <v>0.02284479120937576</v>
+        <v>0.02399207176731735</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>48.17954480489</v>
+        <v>52.01228800000001</v>
       </c>
       <c r="H25">
-        <v>48.17954480489</v>
+        <v>156.036864</v>
       </c>
       <c r="I25">
-        <v>0.05813812447076505</v>
+        <v>0.0619031990312353</v>
       </c>
       <c r="J25">
-        <v>0.05813812447076505</v>
+        <v>0.06190319903123528</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N25">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q25">
-        <v>8764.420050337272</v>
+        <v>9722.7134985222</v>
       </c>
       <c r="R25">
-        <v>8764.420050337272</v>
+        <v>87504.42148669978</v>
       </c>
       <c r="S25">
-        <v>0.01669133490987287</v>
+        <v>0.01800189288859399</v>
       </c>
       <c r="T25">
-        <v>0.01669133490987287</v>
+        <v>0.01800189288859399</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>48.17954480489</v>
+        <v>52.01228800000001</v>
       </c>
       <c r="H26">
-        <v>48.17954480489</v>
+        <v>156.036864</v>
       </c>
       <c r="I26">
-        <v>0.05813812447076505</v>
+        <v>0.0619031990312353</v>
       </c>
       <c r="J26">
-        <v>0.05813812447076505</v>
+        <v>0.06190319903123528</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N26">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q26">
-        <v>746.1533731836749</v>
+        <v>908.1575032364375</v>
       </c>
       <c r="R26">
-        <v>746.1533731836749</v>
+        <v>8173.417529127937</v>
       </c>
       <c r="S26">
-        <v>0.001421006270170815</v>
+        <v>0.001681480597131674</v>
       </c>
       <c r="T26">
-        <v>0.001421006270170815</v>
+        <v>0.001681480597131674</v>
       </c>
     </row>
   </sheetData>
